--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Agrp</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,10 +546,10 @@
         <v>2.348761</v>
       </c>
       <c r="I2">
-        <v>0.8743994174544757</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="J2">
-        <v>0.8743994174544756</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8324493333333334</v>
+        <v>1.011219333333333</v>
       </c>
       <c r="N2">
-        <v>2.497348</v>
+        <v>3.033658</v>
       </c>
       <c r="O2">
-        <v>0.1902770762854465</v>
+        <v>0.1971977600385235</v>
       </c>
       <c r="P2">
-        <v>0.1902770762854465</v>
+        <v>0.1971977600385236</v>
       </c>
       <c r="Q2">
-        <v>0.6517415095364445</v>
+        <v>0.7917041775264444</v>
       </c>
       <c r="R2">
-        <v>5.865673585828</v>
+        <v>7.125337597738</v>
       </c>
       <c r="S2">
-        <v>0.1663781646589353</v>
+        <v>0.06760284412270037</v>
       </c>
       <c r="T2">
-        <v>0.1663781646589353</v>
+        <v>0.06760284412270037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +608,10 @@
         <v>2.348761</v>
       </c>
       <c r="I3">
-        <v>0.8743994174544757</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="J3">
-        <v>0.8743994174544756</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.237666</v>
+        <v>3.237665999999999</v>
       </c>
       <c r="N3">
-        <v>9.712998000000001</v>
+        <v>9.712997999999999</v>
       </c>
       <c r="O3">
-        <v>0.7400493889543587</v>
+        <v>0.6313768555515021</v>
       </c>
       <c r="P3">
-        <v>0.7400493889543587</v>
+        <v>0.6313768555515022</v>
       </c>
       <c r="Q3">
-        <v>2.534834543942</v>
+        <v>2.534834543941999</v>
       </c>
       <c r="R3">
         <v>22.813510895478</v>
       </c>
       <c r="S3">
-        <v>0.6470987545892319</v>
+        <v>0.216447038446028</v>
       </c>
       <c r="T3">
-        <v>0.6470987545892318</v>
+        <v>0.216447038446028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,102 +670,102 @@
         <v>2.348761</v>
       </c>
       <c r="I4">
-        <v>0.8743994174544757</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="J4">
-        <v>0.8743994174544756</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.304817</v>
+        <v>0.7485606666666667</v>
       </c>
       <c r="N4">
-        <v>0.914451</v>
+        <v>2.245682</v>
       </c>
       <c r="O4">
-        <v>0.06967353476019476</v>
+        <v>0.1459767251808977</v>
       </c>
       <c r="P4">
-        <v>0.06967353476019476</v>
+        <v>0.1459767251808977</v>
       </c>
       <c r="Q4">
-        <v>0.2386474272456667</v>
+        <v>0.5860633666668889</v>
       </c>
       <c r="R4">
-        <v>2.147826845211</v>
+        <v>5.274570300002</v>
       </c>
       <c r="S4">
-        <v>0.06092249820630846</v>
+        <v>0.0500433767402766</v>
       </c>
       <c r="T4">
-        <v>0.06092249820630845</v>
+        <v>0.0500433767402766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.7829203333333333</v>
+      </c>
+      <c r="H5">
+        <v>2.348761</v>
+      </c>
+      <c r="I5">
+        <v>0.342817505175991</v>
+      </c>
+      <c r="J5">
+        <v>0.342817505175991</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.1124603333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.337381</v>
-      </c>
-      <c r="I5">
-        <v>0.1256005825455244</v>
-      </c>
-      <c r="J5">
-        <v>0.1256005825455244</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.8324493333333334</v>
+        <v>0.1304993333333333</v>
       </c>
       <c r="N5">
-        <v>2.497348</v>
+        <v>0.391498</v>
       </c>
       <c r="O5">
-        <v>0.1902770762854465</v>
+        <v>0.02544865922907654</v>
       </c>
       <c r="P5">
-        <v>0.1902770762854465</v>
+        <v>0.02544865922907655</v>
       </c>
       <c r="Q5">
-        <v>0.09361752950977778</v>
+        <v>0.1021705815531111</v>
       </c>
       <c r="R5">
-        <v>0.842557765588</v>
+        <v>0.9195352339780001</v>
       </c>
       <c r="S5">
-        <v>0.02389891162651127</v>
+        <v>0.008724245866985978</v>
       </c>
       <c r="T5">
-        <v>0.02389891162651127</v>
+        <v>0.00872424586698598</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +773,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1124603333333333</v>
+        <v>0.8792006666666667</v>
       </c>
       <c r="H6">
-        <v>0.337381</v>
+        <v>2.637602</v>
       </c>
       <c r="I6">
-        <v>0.1256005825455244</v>
+        <v>0.3849757967231252</v>
       </c>
       <c r="J6">
-        <v>0.1256005825455244</v>
+        <v>0.3849757967231252</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.237666</v>
+        <v>1.011219333333333</v>
       </c>
       <c r="N6">
-        <v>9.712998000000001</v>
+        <v>3.033658</v>
       </c>
       <c r="O6">
-        <v>0.7400493889543587</v>
+        <v>0.1971977600385235</v>
       </c>
       <c r="P6">
-        <v>0.7400493889543587</v>
+        <v>0.1971977600385236</v>
       </c>
       <c r="Q6">
-        <v>0.364108997582</v>
+        <v>0.8890647120128888</v>
       </c>
       <c r="R6">
-        <v>3.276980978238</v>
+        <v>8.001582408116001</v>
       </c>
       <c r="S6">
-        <v>0.09295063436512681</v>
+        <v>0.07591636478284625</v>
       </c>
       <c r="T6">
-        <v>0.09295063436512681</v>
+        <v>0.07591636478284627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.8792006666666667</v>
+      </c>
+      <c r="H7">
+        <v>2.637602</v>
+      </c>
+      <c r="I7">
+        <v>0.3849757967231252</v>
+      </c>
+      <c r="J7">
+        <v>0.3849757967231252</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.237665999999999</v>
+      </c>
+      <c r="N7">
+        <v>9.712997999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.6313768555515021</v>
+      </c>
+      <c r="P7">
+        <v>0.6313768555515022</v>
+      </c>
+      <c r="Q7">
+        <v>2.846558105644</v>
+      </c>
+      <c r="R7">
+        <v>25.619022950796</v>
+      </c>
+      <c r="S7">
+        <v>0.2430648079984811</v>
+      </c>
+      <c r="T7">
+        <v>0.2430648079984811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.8792006666666667</v>
+      </c>
+      <c r="H8">
+        <v>2.637602</v>
+      </c>
+      <c r="I8">
+        <v>0.3849757967231252</v>
+      </c>
+      <c r="J8">
+        <v>0.3849757967231252</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.7485606666666667</v>
+      </c>
+      <c r="N8">
+        <v>2.245682</v>
+      </c>
+      <c r="O8">
+        <v>0.1459767251808977</v>
+      </c>
+      <c r="P8">
+        <v>0.1459767251808977</v>
+      </c>
+      <c r="Q8">
+        <v>0.6581350371737779</v>
+      </c>
+      <c r="R8">
+        <v>5.923215334564</v>
+      </c>
+      <c r="S8">
+        <v>0.05619750607954877</v>
+      </c>
+      <c r="T8">
+        <v>0.05619750607954877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.8792006666666667</v>
+      </c>
+      <c r="H9">
+        <v>2.637602</v>
+      </c>
+      <c r="I9">
+        <v>0.3849757967231252</v>
+      </c>
+      <c r="J9">
+        <v>0.3849757967231252</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1304993333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.391498</v>
+      </c>
+      <c r="O9">
+        <v>0.02544865922907654</v>
+      </c>
+      <c r="P9">
+        <v>0.02544865922907655</v>
+      </c>
+      <c r="Q9">
+        <v>0.1147351008662222</v>
+      </c>
+      <c r="R9">
+        <v>1.032615907796</v>
+      </c>
+      <c r="S9">
+        <v>0.009797117862249054</v>
+      </c>
+      <c r="T9">
+        <v>0.009797117862249058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.1124603333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.337381</v>
-      </c>
-      <c r="I7">
-        <v>0.1256005825455244</v>
-      </c>
-      <c r="J7">
-        <v>0.1256005825455244</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.304817</v>
-      </c>
-      <c r="N7">
-        <v>0.914451</v>
-      </c>
-      <c r="O7">
-        <v>0.06967353476019476</v>
-      </c>
-      <c r="P7">
-        <v>0.06967353476019476</v>
-      </c>
-      <c r="Q7">
-        <v>0.03427982142566666</v>
-      </c>
-      <c r="R7">
-        <v>0.308518392831</v>
-      </c>
-      <c r="S7">
-        <v>0.008751036553886305</v>
-      </c>
-      <c r="T7">
-        <v>0.008751036553886305</v>
+      <c r="G10">
+        <v>0.05636633333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.169099</v>
+      </c>
+      <c r="I10">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="J10">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.011219333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.033658</v>
+      </c>
+      <c r="O10">
+        <v>0.1971977600385235</v>
+      </c>
+      <c r="P10">
+        <v>0.1971977600385236</v>
+      </c>
+      <c r="Q10">
+        <v>0.05699872601577777</v>
+      </c>
+      <c r="R10">
+        <v>0.512988534142</v>
+      </c>
+      <c r="S10">
+        <v>0.004867065375448804</v>
+      </c>
+      <c r="T10">
+        <v>0.004867065375448805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05636633333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.169099</v>
+      </c>
+      <c r="I11">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="J11">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.237665999999999</v>
+      </c>
+      <c r="N11">
+        <v>9.712997999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.6313768555515021</v>
+      </c>
+      <c r="P11">
+        <v>0.6313768555515022</v>
+      </c>
+      <c r="Q11">
+        <v>0.182495360978</v>
+      </c>
+      <c r="R11">
+        <v>1.642458248802</v>
+      </c>
+      <c r="S11">
+        <v>0.01558310009157376</v>
+      </c>
+      <c r="T11">
+        <v>0.01558310009157377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05636633333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.169099</v>
+      </c>
+      <c r="I12">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="J12">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7485606666666667</v>
+      </c>
+      <c r="N12">
+        <v>2.245682</v>
+      </c>
+      <c r="O12">
+        <v>0.1459767251808977</v>
+      </c>
+      <c r="P12">
+        <v>0.1459767251808977</v>
+      </c>
+      <c r="Q12">
+        <v>0.04219362005755555</v>
+      </c>
+      <c r="R12">
+        <v>0.379742580518</v>
+      </c>
+      <c r="S12">
+        <v>0.003602871881559696</v>
+      </c>
+      <c r="T12">
+        <v>0.003602871881559696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05636633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.169099</v>
+      </c>
+      <c r="I13">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="J13">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1304993333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.391498</v>
+      </c>
+      <c r="O13">
+        <v>0.02544865922907654</v>
+      </c>
+      <c r="P13">
+        <v>0.02544865922907655</v>
+      </c>
+      <c r="Q13">
+        <v>0.007355768922444444</v>
+      </c>
+      <c r="R13">
+        <v>0.06620192030200001</v>
+      </c>
+      <c r="S13">
+        <v>0.0006281019021779831</v>
+      </c>
+      <c r="T13">
+        <v>0.0006281019021779833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5652943333333332</v>
+      </c>
+      <c r="H14">
+        <v>1.695883</v>
+      </c>
+      <c r="I14">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="J14">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.011219333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.033658</v>
+      </c>
+      <c r="O14">
+        <v>0.1971977600385235</v>
+      </c>
+      <c r="P14">
+        <v>0.1971977600385236</v>
+      </c>
+      <c r="Q14">
+        <v>0.5716365588904443</v>
+      </c>
+      <c r="R14">
+        <v>5.144729030013999</v>
+      </c>
+      <c r="S14">
+        <v>0.0488114857575281</v>
+      </c>
+      <c r="T14">
+        <v>0.04881148575752811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5652943333333332</v>
+      </c>
+      <c r="H15">
+        <v>1.695883</v>
+      </c>
+      <c r="I15">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="J15">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.237665999999999</v>
+      </c>
+      <c r="N15">
+        <v>9.712997999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.6313768555515021</v>
+      </c>
+      <c r="P15">
+        <v>0.6313768555515022</v>
+      </c>
+      <c r="Q15">
+        <v>1.830234243025999</v>
+      </c>
+      <c r="R15">
+        <v>16.472108187234</v>
+      </c>
+      <c r="S15">
+        <v>0.1562819090154193</v>
+      </c>
+      <c r="T15">
+        <v>0.1562819090154193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5652943333333332</v>
+      </c>
+      <c r="H16">
+        <v>1.695883</v>
+      </c>
+      <c r="I16">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="J16">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7485606666666667</v>
+      </c>
+      <c r="N16">
+        <v>2.245682</v>
+      </c>
+      <c r="O16">
+        <v>0.1459767251808977</v>
+      </c>
+      <c r="P16">
+        <v>0.1459767251808977</v>
+      </c>
+      <c r="Q16">
+        <v>0.4231571030228888</v>
+      </c>
+      <c r="R16">
+        <v>3.808413927205999</v>
+      </c>
+      <c r="S16">
+        <v>0.0361329704795126</v>
+      </c>
+      <c r="T16">
+        <v>0.0361329704795126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5652943333333332</v>
+      </c>
+      <c r="H17">
+        <v>1.695883</v>
+      </c>
+      <c r="I17">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="J17">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1304993333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.391498</v>
+      </c>
+      <c r="O17">
+        <v>0.02544865922907654</v>
+      </c>
+      <c r="P17">
+        <v>0.02544865922907655</v>
+      </c>
+      <c r="Q17">
+        <v>0.0737705336371111</v>
+      </c>
+      <c r="R17">
+        <v>0.663934802734</v>
+      </c>
+      <c r="S17">
+        <v>0.006299193597663525</v>
+      </c>
+      <c r="T17">
+        <v>0.006299193597663527</v>
       </c>
     </row>
   </sheetData>
